--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail10 Features.xlsx
@@ -4646,7 +4646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,29 +4657,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4700,115 +4698,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4825,72 +4813,66 @@
         <v>2.982846227897151e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.09727932650506357</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.185734219356809</v>
+        <v>3.25725678874151e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>0.01578711068741869</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.25725678874151e-06</v>
+        <v>0.2111656462156843</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01578711068741869</v>
+        <v>0.04483719847384829</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2111656462156843</v>
+        <v>1.431815436626609</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04483719847384829</v>
+        <v>1.235040546476838</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.354550160060572</v>
+        <v>4.311667083868549</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.235040546476838</v>
+        <v>5.374055427204448e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.311667083868549</v>
+        <v>5481931.673790452</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.374055427204448e-14</v>
+        <v>1.658203196912258e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5481931.673790452</v>
+        <v>1.614988290589836</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.658203196912258e-05</v>
+        <v>0.0001869898026070897</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1.614988290589836</v>
+        <v>10.11187306729207</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001869898026070897</v>
+        <v>1.210106930796566</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.11187306729207</v>
+        <v>0.01911970300253817</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.210106930796566</v>
+        <v>2.530989658699158</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01911970300253817</v>
+        <v>0.9263494457045127</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.530989658699158</v>
+        <v>1.945180432601736</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9263494457045127</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.945180432601736</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1326063333307037</v>
       </c>
     </row>
@@ -4905,72 +4887,66 @@
         <v>2.964604310077573e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1310387753632636</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.143398323547288</v>
+        <v>3.261440598526736e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>0.012692390670647</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.261440598526736e-06</v>
+        <v>0.2116186341460524</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.012692390670647</v>
+        <v>0.04494251557479642</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2116186341460524</v>
+        <v>1.477830680747233</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04494251557479642</v>
+        <v>1.288229227616198</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.399725492877207</v>
+        <v>3.505918211107197</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.288229227616198</v>
+        <v>4.473951334991251e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.505918211107197</v>
+        <v>6326530.11136377</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.473951334991251e-14</v>
+        <v>1.498715102080116e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6326530.11136377</v>
+        <v>1.790698272443063</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.498715102080116e-05</v>
+        <v>0.0002098780908383199</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1.790698272443063</v>
+        <v>12.72740794105202</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002098780908383199</v>
+        <v>1.008075547871323</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.72740794105202</v>
+        <v>0.03399750401981581</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.008075547871323</v>
+        <v>2.139852449649156</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03399750401981581</v>
+        <v>0.9356279920229704</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.139852449649156</v>
+        <v>1.922696602302455</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9356279920229704</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.922696602302455</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1301794926252696</v>
       </c>
     </row>
@@ -4985,72 +4961,66 @@
         <v>2.951433430722793e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1607076535045467</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.108186638159648</v>
+        <v>3.264819667579199e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>0.01007284680000134</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.264819667579199e-06</v>
+        <v>0.211938119657124</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01007284680000134</v>
+        <v>0.04501770478692353</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.211938119657124</v>
+        <v>1.555122685277362</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04501770478692353</v>
+        <v>1.424082636341538</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.46674137217626</v>
+        <v>3.392963938262034</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.424082636341538</v>
+        <v>4.369834609471678e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.392963938262034</v>
+        <v>5858097.949976219</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.369834609471678e-14</v>
+        <v>1.763487673597198e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5858097.949976219</v>
+        <v>1.499609758966284</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.763487673597198e-05</v>
+        <v>0.0002400487425164934</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1.499609758966284</v>
+        <v>12.48875016173768</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002400487425164934</v>
+        <v>1.138478030087765</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.48875016173768</v>
+        <v>0.03744013366028788</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.138478030087765</v>
+        <v>2.25449705753055</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03744013366028788</v>
+        <v>0.9469623531166858</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.25449705753055</v>
+        <v>1.911511336335274</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9469623531166858</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.911511336335274</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1137891561560394</v>
       </c>
     </row>
@@ -5065,72 +5035,66 @@
         <v>2.943045828598244e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1839441234208412</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.082781974930136</v>
+        <v>3.267294830688194e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>0.006529298313481722</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.267294830688194e-06</v>
+        <v>0.211548841674918</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.006529298313481722</v>
+        <v>0.04479280864395404</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.211548841674918</v>
+        <v>1.635493793066741</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04479280864395404</v>
+        <v>1.271227644445281</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.544579456663119</v>
+        <v>4.051713169717786</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.271227644445281</v>
+        <v>3.056254977649386e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.051713169717786</v>
+        <v>7592263.413022229</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.056254977649386e-14</v>
+        <v>1.460509696560959e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7592263.413022229</v>
+        <v>1.761700667070873</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.460509696560959e-05</v>
+        <v>0.0003058927375158719</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1.761700667070873</v>
+        <v>11.33925430561353</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0003058927375158719</v>
+        <v>1.525071332620885</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.33925430561353</v>
+        <v>0.03933128692195367</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.525071332620885</v>
+        <v>2.260136628933778</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03933128692195367</v>
+        <v>0.9539210554332093</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.260136628933778</v>
+        <v>1.862706478501933</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9539210554332093</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.862706478501933</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1097315719988883</v>
       </c>
     </row>
@@ -5145,72 +5109,66 @@
         <v>2.939579394435814e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1962949919820254</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.07094979435249</v>
+        <v>3.268542199945315e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>0.001823834843330192</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.268542199945315e-06</v>
+        <v>0.2100905164958866</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.001823834843330192</v>
+        <v>0.04413754819868086</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2100905164958866</v>
+        <v>1.670243411053604</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04413754819868086</v>
+        <v>1.317825416321203</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.581884490542596</v>
+        <v>5.299489492511295</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.317825416321203</v>
+        <v>1.103927056681657e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.299489492511295</v>
+        <v>20242044.8541658</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.103927056681657e-14</v>
+        <v>5.504380137587415e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>20242044.8541658</v>
+        <v>4.523234915624109</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.504380137587415e-06</v>
+        <v>0.0002522972694167989</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>4.523234915624109</v>
+        <v>10.76344599183694</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002522972694167989</v>
+        <v>1.612165121321936</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.76344599183694</v>
+        <v>0.02922908513202589</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.612165121321936</v>
+        <v>2.637440614141138</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02922908513202589</v>
+        <v>0.9559818217756068</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.637440614141138</v>
+        <v>1.852598761083152</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9559818217756068</v>
+        <v>6</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.852598761083152</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1513614084459704</v>
       </c>
     </row>
@@ -5225,72 +5183,66 @@
         <v>2.939785511790733e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1948378094691912</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.071863195727537</v>
+        <v>3.26839816308425e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>-0.002490373770483848</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.26839816308425e-06</v>
+        <v>0.2087224029476143</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.002490373770483848</v>
+        <v>0.0435698760849105</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2087224029476143</v>
+        <v>1.754777013618306</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0435698760849105</v>
+        <v>1.468892540947923</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.676510865192034</v>
+        <v>4.940490406248002</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.468892540947923</v>
+        <v>3.414873826787378e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.940490406248002</v>
+        <v>58722976.15937971</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.414873826787378e-15</v>
+        <v>1.962430114367159e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>58722976.15937971</v>
+        <v>11.77580968340312</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.962430114367159e-06</v>
+        <v>0.0001507935890355821</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>11.77580968340312</v>
+        <v>10.30085880964755</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001507935890355821</v>
+        <v>1.139837131281364</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.30085880964755</v>
+        <v>0.01600035973357782</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.139837131281364</v>
+        <v>2.794381832461037</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01600035973357782</v>
+        <v>0.9587796021253217</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.794381832461037</v>
+        <v>1.765821196435514</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9587796021253217</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.765821196435514</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1948926181151404</v>
       </c>
     </row>
@@ -5305,72 +5257,66 @@
         <v>2.941498630510893e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1838253955034219</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.079040830847007</v>
+        <v>3.267319375274806e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>-0.004408960994855078</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.267319375274806e-06</v>
+        <v>0.2084921041287071</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.004408960994855078</v>
+        <v>0.04348824378183935</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2084921041287071</v>
+        <v>1.806457344102411</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04348824378183935</v>
+        <v>1.710866912419817</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.741317142364432</v>
+        <v>3.877007486417394</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.710866912419817</v>
+        <v>2.213299148752523e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.877007486417394</v>
+        <v>87508114.8815757</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.213299148752523e-15</v>
+        <v>1.342304080495402e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>87508114.8815757</v>
+        <v>16.94871486896979</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.342304080495402e-06</v>
+        <v>0.0001522137678147755</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>16.94871486896979</v>
+        <v>9.77559124255755</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001522137678147755</v>
+        <v>1.157840426478571</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.77559124255755</v>
+        <v>0.01454588010879744</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.157840426478571</v>
+        <v>2.670120432564116</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01454588010879744</v>
+        <v>0.9606415632656654</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.670120432564116</v>
+        <v>1.691625049160895</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9606415632656654</v>
+        <v>13</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.691625049160895</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1915359448728453</v>
       </c>
     </row>
@@ -5385,72 +5331,66 @@
         <v>2.943820306094556e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1707280842284388</v>
+        <v>9.756201577521155e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.088050753013033</v>
+        <v>3.26602833278438e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.756201577521155e-07</v>
+        <v>-0.004076528842199397</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.26602833278438e-06</v>
+        <v>0.2082400483576294</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.004076528842199397</v>
+        <v>0.04337993319889213</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2082400483576294</v>
+        <v>1.8173428757831</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04337993319889213</v>
+        <v>1.79145529418736</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.764095982260168</v>
+        <v>3.873941720599029</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.79145529418736</v>
+        <v>2.216803662918286e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.873941720599029</v>
+        <v>86810600.08317126</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.216803662918286e-15</v>
+        <v>1.355553810259541e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>86810600.08317126</v>
+        <v>16.70601038382518</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.355553810259541e-06</v>
+        <v>0.0001565325527425807</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>16.70601038382518</v>
+        <v>8.571792041910545</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001565325527425807</v>
+        <v>1.29260603896388</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.571792041910545</v>
+        <v>0.01150132617663266</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.29260603896388</v>
+        <v>2.798663087677046</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01150132617663266</v>
+        <v>0.9606165252619755</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.798663087677046</v>
+        <v>1.680767193229345</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9606165252619755</v>
+        <v>8</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.680767193229345</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1770398698425567</v>
       </c>
     </row>
@@ -5827,7 +5767,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.59392773884682</v>
+        <v>1.546056914718863</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.832552045572449</v>
@@ -5916,7 +5856,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.590440646358409</v>
+        <v>1.545662905939269</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.868265416361652</v>
@@ -6005,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.607461416453866</v>
+        <v>1.555725143017653</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.746534320208124</v>
@@ -6094,7 +6034,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.625153923121373</v>
+        <v>1.574358055664269</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.829614376973646</v>
@@ -6183,7 +6123,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.634657277418409</v>
+        <v>1.584550996032216</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.986653439922847</v>
@@ -6272,7 +6212,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.631246523997619</v>
+        <v>1.599455696671041</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.821669318610487</v>
@@ -6361,7 +6301,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.617841128152002</v>
+        <v>1.593558858219514</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.779467709625844</v>
@@ -6450,7 +6390,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.636753809675548</v>
+        <v>1.61028555788747</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.879892671442873</v>
@@ -6539,7 +6479,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.640025988583578</v>
+        <v>1.625565560477095</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.123222489274384</v>
@@ -6628,7 +6568,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.650838286051504</v>
+        <v>1.631265056931502</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.879587126902248</v>
@@ -6717,7 +6657,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.635602197784236</v>
+        <v>1.602428601438445</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.73380918184028</v>
@@ -6806,7 +6746,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.619869902280821</v>
+        <v>1.587276221862487</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.149748020531602</v>
@@ -6895,7 +6835,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.631478907911824</v>
+        <v>1.59270458673756</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.025089421812237</v>
@@ -6984,7 +6924,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.617863310948288</v>
+        <v>1.586258114576212</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.409053043738675</v>
@@ -7073,7 +7013,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.585647106716465</v>
+        <v>1.558240780411919</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.338947208660644</v>
@@ -7162,7 +7102,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.591959019955081</v>
+        <v>1.565805420602721</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.479689568696809</v>
@@ -7251,7 +7191,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.582289429236135</v>
+        <v>1.556226505472378</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.343009441027835</v>
@@ -7340,7 +7280,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.562360286601902</v>
+        <v>1.539397750779174</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.423896376714998</v>
@@ -7429,7 +7369,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539554321083191</v>
+        <v>1.518063231667273</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.415135366894021</v>
@@ -7518,7 +7458,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.543404424023833</v>
+        <v>1.519793696556539</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.372532164368363</v>
@@ -7607,7 +7547,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.545862485825668</v>
+        <v>1.512434656543408</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.362033305255507</v>
@@ -7696,7 +7636,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544529959627648</v>
+        <v>1.507755288710208</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.472316066999849</v>
@@ -7785,7 +7725,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.538623947754133</v>
+        <v>1.497458870872185</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.33843271775771</v>
@@ -7874,7 +7814,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.544970838933498</v>
+        <v>1.493840650100498</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.461302316426567</v>
@@ -7963,7 +7903,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.532926577978676</v>
+        <v>1.484995485923245</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.514928010615714</v>
@@ -8052,7 +7992,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.520964399437047</v>
+        <v>1.479877617284207</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.374535029808331</v>
@@ -8141,7 +8081,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.534456053897731</v>
+        <v>1.488279744255359</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.471936126070503</v>
@@ -8230,7 +8170,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.537546784454145</v>
+        <v>1.491002940912182</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.491227199309459</v>
@@ -8319,7 +8259,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.556187487060127</v>
+        <v>1.486931800338304</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.329417093959695</v>
@@ -8408,7 +8348,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.579369124334703</v>
+        <v>1.494456533312152</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.423162044750045</v>
@@ -8497,7 +8437,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.551427319757183</v>
+        <v>1.469285652086134</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.634768051563654</v>
@@ -8586,7 +8526,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.551682748867923</v>
+        <v>1.466792137225362</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.658416956283503</v>
@@ -8675,7 +8615,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576859392555605</v>
+        <v>1.477834997419084</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.538668990419716</v>
@@ -8764,7 +8704,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.585265265292767</v>
+        <v>1.483505257267511</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.62041102831026</v>
@@ -8853,7 +8793,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573723552013702</v>
+        <v>1.462514134208683</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.551695438031602</v>
@@ -8942,7 +8882,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.543745005657241</v>
+        <v>1.44722442410729</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.625787689685427</v>
@@ -9031,7 +8971,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.546869127134485</v>
+        <v>1.450237032729967</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.64782906697819</v>
@@ -9120,7 +9060,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.549944329853433</v>
+        <v>1.454866755247607</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.473626774512944</v>
@@ -9209,7 +9149,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.545716845256962</v>
+        <v>1.452792928312336</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.71344031223353</v>
@@ -9298,7 +9238,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.563844078628195</v>
+        <v>1.463948654291767</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.399830988301814</v>
@@ -9387,7 +9327,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577476983690318</v>
+        <v>1.477734513358941</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.464525682730218</v>
@@ -9476,7 +9416,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.570066301199903</v>
+        <v>1.474464865092424</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.51833752424456</v>
@@ -9565,7 +9505,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.562838936438428</v>
+        <v>1.476714417506486</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.521753523268286</v>
@@ -9654,7 +9594,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.56270627875422</v>
+        <v>1.491595241727994</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.538469506519279</v>
@@ -9743,7 +9683,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.587473655707644</v>
+        <v>1.522139475972378</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.444057895183907</v>
@@ -9832,7 +9772,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.608456350101549</v>
+        <v>1.53011669990567</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.081051891262946</v>
@@ -9921,7 +9861,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607892212161419</v>
+        <v>1.527297606549124</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.075271759866967</v>
@@ -10010,7 +9950,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.612285811083848</v>
+        <v>1.53545407366035</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.020084314066689</v>
@@ -10099,7 +10039,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6100838962146</v>
+        <v>1.533507853263369</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.124331908464773</v>
@@ -10188,7 +10128,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.623369254048545</v>
+        <v>1.554483185266345</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.185390206378734</v>
@@ -10277,7 +10217,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.653766476944204</v>
+        <v>1.573631112936962</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.01742613349347</v>
@@ -10366,7 +10306,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.647924566744908</v>
+        <v>1.567801906692542</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.087410068206659</v>
@@ -10455,7 +10395,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.642921419114822</v>
+        <v>1.564276435051392</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.60124232980418</v>
@@ -10741,7 +10681,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.483823807037172</v>
+        <v>1.440196955797991</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.39561269612655</v>
@@ -10830,7 +10770,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.487054090838346</v>
+        <v>1.443992991019784</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.204774191668365</v>
@@ -10919,7 +10859,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.525026757878093</v>
+        <v>1.471846744684462</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.502926539193981</v>
@@ -11008,7 +10948,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53455129175301</v>
+        <v>1.478315276331117</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.348624210413256</v>
@@ -11097,7 +11037,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.560657964209568</v>
+        <v>1.494815823042631</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.757835131497408</v>
@@ -11186,7 +11126,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.547129403746373</v>
+        <v>1.499209299476127</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.886366629294791</v>
@@ -11275,7 +11215,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.52890195789096</v>
+        <v>1.48976417708037</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.532394916349729</v>
@@ -11364,7 +11304,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552549430877914</v>
+        <v>1.511473299108589</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.390426030700658</v>
@@ -11453,7 +11393,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.568577760984547</v>
+        <v>1.537211465639439</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.558691178127392</v>
@@ -11542,7 +11482,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.586196010817996</v>
+        <v>1.548283566551076</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.600395456049433</v>
@@ -11631,7 +11571,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.575185255683167</v>
+        <v>1.526024343598767</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.569089701853578</v>
@@ -11720,7 +11660,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.562161900724499</v>
+        <v>1.512310887189213</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.726323824743654</v>
@@ -11809,7 +11749,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.562131909299422</v>
+        <v>1.511250479063871</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.739255062699481</v>
@@ -11898,7 +11838,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.572177952842914</v>
+        <v>1.516769044629215</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.134485515873035</v>
@@ -11987,7 +11927,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.525850696666665</v>
+        <v>1.482461342688915</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.196251908696406</v>
@@ -12076,7 +12016,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531075850503685</v>
+        <v>1.492258820403336</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.257240213133044</v>
@@ -12165,7 +12105,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.517344106447867</v>
+        <v>1.478878725973385</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.167675702301303</v>
@@ -12254,7 +12194,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.532790015720244</v>
+        <v>1.48866556650026</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.199323450852643</v>
@@ -12343,7 +12283,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.522040638051794</v>
+        <v>1.479156290002889</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.224402739647556</v>
@@ -12432,7 +12372,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.527072020228836</v>
+        <v>1.484871186937307</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.206431015883406</v>
@@ -12521,7 +12461,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.529884631444729</v>
+        <v>1.484178130026113</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.253914778198659</v>
@@ -12610,7 +12550,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.527917064426466</v>
+        <v>1.478586026582883</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.28276567060038</v>
@@ -12699,7 +12639,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.521041695267773</v>
+        <v>1.467575060902217</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.209161909048801</v>
@@ -12788,7 +12728,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.524304771364933</v>
+        <v>1.459743913051323</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.298079805200278</v>
@@ -12877,7 +12817,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.514644104150078</v>
+        <v>1.453016923570558</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.330165186661688</v>
@@ -12966,7 +12906,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.518710439029188</v>
+        <v>1.465572619679006</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.229930040208983</v>
@@ -13055,7 +12995,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.52510312731655</v>
+        <v>1.464318706437256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.267555461370629</v>
@@ -13144,7 +13084,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.540406841124325</v>
+        <v>1.475342337643828</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.324230749506459</v>
@@ -13233,7 +13173,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.544354247370636</v>
+        <v>1.460537950729042</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.066568725384539</v>
@@ -13322,7 +13262,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.582635012659283</v>
+        <v>1.476959879946131</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.674057867343577</v>
@@ -13411,7 +13351,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.544501342464737</v>
+        <v>1.446433155546139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.789085823536382</v>
@@ -13500,7 +13440,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556130556726322</v>
+        <v>1.454560273787489</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.571278690039823</v>
@@ -13589,7 +13529,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.548196490534117</v>
+        <v>1.445037640856371</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.709607254328436</v>
@@ -13678,7 +13618,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555105512294771</v>
+        <v>1.44852289905703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.782261059419762</v>
@@ -13767,7 +13707,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.551138119175208</v>
+        <v>1.4327291987356</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.693551609224546</v>
@@ -13856,7 +13796,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.557237963945751</v>
+        <v>1.437858389418778</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.647896604016856</v>
@@ -13945,7 +13885,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.566832930271157</v>
+        <v>1.445205135056928</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.812802618862584</v>
@@ -14034,7 +13974,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.567424347416363</v>
+        <v>1.448964936197932</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.584434468484221</v>
@@ -14123,7 +14063,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.571870429670042</v>
+        <v>1.457021764283347</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.76213527463678</v>
@@ -14212,7 +14152,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.588470460583792</v>
+        <v>1.46760872533467</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.575067482889875</v>
@@ -14301,7 +14241,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.598356260784831</v>
+        <v>1.473324007016219</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.619993658856074</v>
@@ -14390,7 +14330,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.594668001412705</v>
+        <v>1.477431012611521</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.580360799884463</v>
@@ -14479,7 +14419,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584155274779983</v>
+        <v>1.475907725162369</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.529125190855991</v>
@@ -14568,7 +14508,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.58152051547542</v>
+        <v>1.487647413597635</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.652667111036288</v>
@@ -14657,7 +14597,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.591052817808293</v>
+        <v>1.50765029815733</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.641613100055829</v>
@@ -14746,7 +14686,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631197575215783</v>
+        <v>1.52753656227201</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.969830300715405</v>
@@ -14835,7 +14775,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.631033004155659</v>
+        <v>1.52039807725659</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.177442342810471</v>
@@ -14924,7 +14864,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.642784742198224</v>
+        <v>1.534212947674303</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.036654901794392</v>
@@ -15013,7 +14953,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.636732900020658</v>
+        <v>1.527025107615835</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.109465851826526</v>
@@ -15102,7 +15042,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647289954553469</v>
+        <v>1.54719912406009</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.365099387530845</v>
@@ -15191,7 +15131,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.644959495414884</v>
+        <v>1.541732322371533</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.255347719278903</v>
@@ -15280,7 +15220,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.651114371795663</v>
+        <v>1.545725091546828</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.899540354693683</v>
@@ -15369,7 +15309,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.64163457166317</v>
+        <v>1.533242795881356</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.798285158971631</v>
@@ -15655,7 +15595,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.675994247447442</v>
+        <v>1.63656549695558</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.236791300034257</v>
@@ -15744,7 +15684,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.667930006496779</v>
+        <v>1.624538027369957</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.848783640590966</v>
@@ -15833,7 +15773,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.661777328338796</v>
+        <v>1.6156378637676</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.000984959678119</v>
@@ -15922,7 +15862,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.657746169286647</v>
+        <v>1.61196293772414</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.184021137290117</v>
@@ -16011,7 +15951,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.668347006813319</v>
+        <v>1.624565653184202</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.874599469045661</v>
@@ -16100,7 +16040,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.657637124583388</v>
+        <v>1.624164661188999</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.943020367614801</v>
@@ -16189,7 +16129,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.638222039283082</v>
+        <v>1.61405682271329</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.133142736600762</v>
@@ -16278,7 +16218,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637463477357559</v>
+        <v>1.616307626021288</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.184908338805641</v>
@@ -16367,7 +16307,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.629812102398081</v>
+        <v>1.618272363789299</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.179050079767425</v>
@@ -16456,7 +16396,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.640495592816915</v>
+        <v>1.623947416369071</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.772581207952765</v>
@@ -16545,7 +16485,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630700142434742</v>
+        <v>1.602657058875368</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.749356770117749</v>
@@ -16634,7 +16574,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.613803674727749</v>
+        <v>1.583135875467226</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.209792544641968</v>
@@ -16723,7 +16663,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.623746925638968</v>
+        <v>1.589250817159969</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.135550423505662</v>
@@ -16812,7 +16752,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.656166310674843</v>
+        <v>1.601319269552897</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.934593863887064</v>
@@ -16901,7 +16841,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66598698999753</v>
+        <v>1.612412788197234</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.97858633295601</v>
@@ -16990,7 +16930,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.678182600274081</v>
+        <v>1.624947380482449</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.967763853689653</v>
@@ -17079,7 +17019,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663510609324737</v>
+        <v>1.615110170236119</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.997154431325653</v>
@@ -17168,7 +17108,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.667125027248323</v>
+        <v>1.624805990012227</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.01369330374962</v>
@@ -17257,7 +17197,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651903669856747</v>
+        <v>1.608476261948909</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.976474380893019</v>
@@ -17346,7 +17286,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.653730423721774</v>
+        <v>1.610975083930847</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.017760382986219</v>
@@ -17435,7 +17375,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.659241520657836</v>
+        <v>1.60981844693423</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.01863371176991</v>
@@ -17524,7 +17464,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.6594975526709</v>
+        <v>1.606612247665161</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.989425253275309</v>
@@ -17613,7 +17553,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.654880630088692</v>
+        <v>1.601302693200838</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.014436177953718</v>
@@ -17702,7 +17642,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.66920655491905</v>
+        <v>1.600639078413294</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.986530406037688</v>
@@ -17791,7 +17731,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657628138416667</v>
+        <v>1.591781305575829</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.986438191203851</v>
@@ -17880,7 +17820,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.648637447739455</v>
+        <v>1.594391100784458</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.054482895148666</v>
@@ -17969,7 +17909,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.663425075165122</v>
+        <v>1.610565296178498</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.991281263951345</v>
@@ -18058,7 +17998,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.666449427109818</v>
+        <v>1.616047890086012</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.031864408621739</v>
@@ -18147,7 +18087,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.641274721542625</v>
+        <v>1.610827138169034</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.364522357407704</v>
@@ -18236,7 +18176,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6265373071156</v>
+        <v>1.592894064080524</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.078652641922566</v>
@@ -18325,7 +18265,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586155806713631</v>
+        <v>1.558630880063132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.82887327567062</v>
@@ -18414,7 +18354,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593557051991588</v>
+        <v>1.562288345963225</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.987837502405055</v>
@@ -18503,7 +18443,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.582639285342118</v>
+        <v>1.549918491525051</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.063590724354038</v>
@@ -18592,7 +18532,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588353404762176</v>
+        <v>1.552584412597681</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.874725074243419</v>
@@ -18681,7 +18621,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582423460584984</v>
+        <v>1.540053657555149</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.725166034246733</v>
@@ -18770,7 +18710,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.587581763917271</v>
+        <v>1.548451694813295</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.701818794718186</v>
@@ -18859,7 +18799,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.593066218145957</v>
+        <v>1.552094375447343</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.999357702208519</v>
@@ -18948,7 +18888,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589831119508593</v>
+        <v>1.55217789885553</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.878715901943346</v>
@@ -19037,7 +18977,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.592921326725144</v>
+        <v>1.560557689515189</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.6593445885227</v>
@@ -19126,7 +19066,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.609405608597626</v>
+        <v>1.575449614913538</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.752082354212491</v>
@@ -19215,7 +19155,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.635574131701855</v>
+        <v>1.594654665419786</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.804057714255254</v>
@@ -19304,7 +19244,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.636634071292322</v>
+        <v>1.595692817921065</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.772863186057846</v>
@@ -19393,7 +19333,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.622837709022533</v>
+        <v>1.58393807558799</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.839402050420259</v>
@@ -19482,7 +19422,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.633776111431983</v>
+        <v>1.5933669154878</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.933588646469002</v>
@@ -19571,7 +19511,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.654786522795371</v>
+        <v>1.613645017618902</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.755022242202405</v>
@@ -19660,7 +19600,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.684986319502702</v>
+        <v>1.630049267817313</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.343190429288085</v>
@@ -19749,7 +19689,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.680381081154702</v>
+        <v>1.625605428162473</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.141194288461203</v>
@@ -19838,7 +19778,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.694506187540539</v>
+        <v>1.635355428463839</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.984856452763224</v>
@@ -19927,7 +19867,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.685055831966301</v>
+        <v>1.629919995746455</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.928367985851035</v>
@@ -20016,7 +19956,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.689367802584855</v>
+        <v>1.634125564986549</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.91819262800597</v>
@@ -20105,7 +20045,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.693735932899738</v>
+        <v>1.630793738014364</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.10479589733945</v>
@@ -20194,7 +20134,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.691546528872293</v>
+        <v>1.626754911474941</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.879704513445573</v>
@@ -20283,7 +20223,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.677151348374855</v>
+        <v>1.618003627408617</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.69239041446789</v>
@@ -20569,7 +20509,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633707470475031</v>
+        <v>1.622815688420791</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.732289683487489</v>
@@ -20658,7 +20598,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624022831856484</v>
+        <v>1.611981340012621</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.300436231925324</v>
@@ -20747,7 +20687,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.632912424898119</v>
+        <v>1.615004811146292</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.783159325728797</v>
@@ -20836,7 +20776,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611257388331693</v>
+        <v>1.588871566151148</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.504911290424308</v>
@@ -20925,7 +20865,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.645393794237032</v>
+        <v>1.615086052918566</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.929822718772112</v>
@@ -21014,7 +20954,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.632498615356497</v>
+        <v>1.60731705926044</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.258208118715009</v>
@@ -21103,7 +21043,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61184928741614</v>
+        <v>1.592553515276666</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.789798911159088</v>
@@ -21192,7 +21132,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620455998843569</v>
+        <v>1.60301059836114</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.675372151673282</v>
@@ -21281,7 +21221,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.636215587247377</v>
+        <v>1.628836140897289</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.775906455931546</v>
@@ -21370,7 +21310,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653617541828446</v>
+        <v>1.635525479586602</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.755995642648489</v>
@@ -21459,7 +21399,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.641692563006338</v>
+        <v>1.61421154954464</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.706049670974697</v>
@@ -21548,7 +21488,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.636454867526535</v>
+        <v>1.609842976179064</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.09647593586088</v>
@@ -21637,7 +21577,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.621971367510541</v>
+        <v>1.59887223865123</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.914476203374926</v>
@@ -21726,7 +21666,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.651454725858207</v>
+        <v>1.612461236743213</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.075016091907901</v>
@@ -21815,7 +21755,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.633645959466437</v>
+        <v>1.597461197253123</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.163815954766753</v>
@@ -21904,7 +21844,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.653508297300161</v>
+        <v>1.614687992698514</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.22020812576641</v>
@@ -21993,7 +21933,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.638683332117832</v>
+        <v>1.600675317529507</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.163986672386941</v>
@@ -22082,7 +22022,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.649523189512645</v>
+        <v>1.61136000761277</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.158932881668448</v>
@@ -22171,7 +22111,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.630988644134969</v>
+        <v>1.595102799002851</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.141823872245714</v>
@@ -22260,7 +22200,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.622318481609211</v>
+        <v>1.586423365997491</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.137792102468807</v>
@@ -22349,7 +22289,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.618765613494126</v>
+        <v>1.581504667430599</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.17833483039517</v>
@@ -22438,7 +22378,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.616571080370864</v>
+        <v>1.577454983086169</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.16604752722366</v>
@@ -22527,7 +22467,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.598161564562648</v>
+        <v>1.557867931147461</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.131605452472338</v>
@@ -22616,7 +22556,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.597501923307552</v>
+        <v>1.549446278168968</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.176447914583391</v>
@@ -22705,7 +22645,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587098707517685</v>
+        <v>1.54119567182688</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.179026692483833</v>
@@ -22794,7 +22734,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585218987118104</v>
+        <v>1.54761530908062</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.145907866224579</v>
@@ -22883,7 +22823,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58521708931472</v>
+        <v>1.542701263819887</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.157523630794451</v>
@@ -22972,7 +22912,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.598451659888671</v>
+        <v>1.551250155050131</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.187753083797079</v>
@@ -23061,7 +23001,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.568688985705682</v>
+        <v>1.52699319520853</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.658678689073183</v>
@@ -23150,7 +23090,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.57672818795704</v>
+        <v>1.531781821772145</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.667270594321998</v>
@@ -23239,7 +23179,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536434059121658</v>
+        <v>1.492931364010899</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.813643789247344</v>
@@ -23328,7 +23268,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546591222590864</v>
+        <v>1.504251470332919</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.667614064715573</v>
@@ -23417,7 +23357,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.538223029159813</v>
+        <v>1.497048177677401</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.910174814897503</v>
@@ -23506,7 +23446,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.546978229174844</v>
+        <v>1.504468326637493</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.831558845896044</v>
@@ -23595,7 +23535,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.54611028056109</v>
+        <v>1.495467593142868</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.772138134213121</v>
@@ -23684,7 +23624,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.557761538865787</v>
+        <v>1.506377456883675</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.778535766914475</v>
@@ -23773,7 +23713,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.56338443924837</v>
+        <v>1.508105797203921</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.760983056890767</v>
@@ -23862,7 +23802,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.570434171766227</v>
+        <v>1.51514703323357</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.816330863638487</v>
@@ -23951,7 +23891,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.580110060023879</v>
+        <v>1.523651821936995</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.784729123809734</v>
@@ -24040,7 +23980,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.589982976603518</v>
+        <v>1.533154709910276</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.729905622007772</v>
@@ -24129,7 +24069,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607282741720302</v>
+        <v>1.549310994455949</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.855135427804373</v>
@@ -24218,7 +24158,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.607724996175741</v>
+        <v>1.553643735219185</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.674304159063976</v>
@@ -24307,7 +24247,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.599695679644034</v>
+        <v>1.551733101009765</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.597593013850051</v>
@@ -24396,7 +24336,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.603644421513131</v>
+        <v>1.559215317691374</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.713477631332859</v>
@@ -24485,7 +24425,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.617511690888413</v>
+        <v>1.576618101454023</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.845441246131607</v>
@@ -24574,7 +24514,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.655902618567735</v>
+        <v>1.608284816652422</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.973544289469034</v>
@@ -24663,7 +24603,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.642925529928964</v>
+        <v>1.595276930197559</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.881838691398722</v>
@@ -24752,7 +24692,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.66150736675429</v>
+        <v>1.611223833118335</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.987291832601244</v>
@@ -24841,7 +24781,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.654294305518109</v>
+        <v>1.604484162327325</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.943915486763339</v>
@@ -24930,7 +24870,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.667530672871819</v>
+        <v>1.619487391270897</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.925080621586382</v>
@@ -25019,7 +24959,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.672752725499793</v>
+        <v>1.620717904635114</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.927799191744401</v>
@@ -25108,7 +25048,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.686833614461687</v>
+        <v>1.636937035242945</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.955082001409153</v>
@@ -25197,7 +25137,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.676368467874744</v>
+        <v>1.626807017621048</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.104793431210445</v>
@@ -25483,7 +25423,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.514271773024436</v>
+        <v>1.467861871535553</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.143578201728372</v>
@@ -25572,7 +25512,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.517194764547776</v>
+        <v>1.469970115966141</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.242162837909198</v>
@@ -25661,7 +25601,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.559916157511787</v>
+        <v>1.499288193583421</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.057029530959666</v>
@@ -25750,7 +25690,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.594413218880864</v>
+        <v>1.532855520111386</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.449706159586285</v>
@@ -25839,7 +25779,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.619529888958826</v>
+        <v>1.546619381928305</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.579171841841752</v>
@@ -25928,7 +25868,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616646807544579</v>
+        <v>1.559339342523094</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.718177787353859</v>
@@ -26017,7 +25957,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60907034315506</v>
+        <v>1.558003127882283</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.574095558210323</v>
@@ -26106,7 +26046,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622337357553516</v>
+        <v>1.568054298462967</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.439255668347178</v>
@@ -26195,7 +26135,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.628623511090872</v>
+        <v>1.584773185362347</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.48244338720923</v>
@@ -26284,7 +26224,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.637178189912378</v>
+        <v>1.591427270292187</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.698675846852459</v>
@@ -26373,7 +26313,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.613136109281057</v>
+        <v>1.563563702133776</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.637906498912072</v>
@@ -26462,7 +26402,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595161153628521</v>
+        <v>1.548793656434302</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.594610137307516</v>
@@ -26551,7 +26491,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597344872521394</v>
+        <v>1.550024861316836</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.705285545955022</v>
@@ -26640,7 +26580,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.551767282741885</v>
+        <v>1.506464911773215</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.999949904786857</v>
@@ -26729,7 +26669,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.516113702329262</v>
+        <v>1.476739175803064</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.021507760669665</v>
@@ -26818,7 +26758,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.517803721558817</v>
+        <v>1.477337710071315</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.062767345046448</v>
@@ -26907,7 +26847,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.504161196593546</v>
+        <v>1.469006010600426</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.016219290693468</v>
@@ -26996,7 +26936,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.511684870367655</v>
+        <v>1.476497515210323</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.039248466909581</v>
@@ -27085,7 +27025,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506938420008639</v>
+        <v>1.470021742351101</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.037685560540697</v>
@@ -27174,7 +27114,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.50966468106682</v>
+        <v>1.469554230224598</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.037117333397712</v>
@@ -27263,7 +27203,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.510420241865778</v>
+        <v>1.46319352412468</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.018258532682299</v>
@@ -27352,7 +27292,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.50949696214647</v>
+        <v>1.46010747675424</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.059077432982859</v>
@@ -27441,7 +27381,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.507533659810168</v>
+        <v>1.454406337525558</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.017907331727999</v>
@@ -27530,7 +27470,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.5106531450137</v>
+        <v>1.446660800131313</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.088520053782049</v>
@@ -27619,7 +27559,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.500883398239458</v>
+        <v>1.436240174228486</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.096458000965808</v>
@@ -27708,7 +27648,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.492057382146262</v>
+        <v>1.434573593326222</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.032139063518139</v>
@@ -27797,7 +27737,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.505376658832823</v>
+        <v>1.441729143743602</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.071481747465785</v>
@@ -27886,7 +27826,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.516060592902137</v>
+        <v>1.453160666261656</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.048813279978666</v>
@@ -27975,7 +27915,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.568863318275705</v>
+        <v>1.483040924297537</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.227557897004737</v>
@@ -28064,7 +28004,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.591619509215599</v>
+        <v>1.497908393556776</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.924562701734301</v>
@@ -28153,7 +28093,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583074653241391</v>
+        <v>1.489732851423514</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.72498024002364</v>
@@ -28242,7 +28182,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.591226092883115</v>
+        <v>1.493334125061111</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.825621845114256</v>
@@ -28331,7 +28271,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.604749401663059</v>
+        <v>1.49814266594351</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.720408026029135</v>
@@ -28420,7 +28360,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614211003997828</v>
+        <v>1.504576413579525</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.983223420217042</v>
@@ -28509,7 +28449,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611017789202581</v>
+        <v>1.495691592049965</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.787402483947482</v>
@@ -28598,7 +28538,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.604620123624255</v>
+        <v>1.500178178115695</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.999697664988301</v>
@@ -28687,7 +28627,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.61313840924545</v>
+        <v>1.507005862723439</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.978967513791595</v>
@@ -28776,7 +28716,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608347344518902</v>
+        <v>1.504238036464455</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.792906983173522</v>
@@ -28865,7 +28805,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.609122448842307</v>
+        <v>1.513848758836555</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.781553940430574</v>
@@ -28954,7 +28894,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638489267954823</v>
+        <v>1.536171948729068</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.655925101965874</v>
@@ -29043,7 +28983,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.660993398152648</v>
+        <v>1.555408094018323</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.688613499280243</v>
@@ -29132,7 +29072,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.658440290089286</v>
+        <v>1.55775074364224</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.713052374971931</v>
@@ -29221,7 +29161,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65992530667253</v>
+        <v>1.560071926383985</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.84046842814014</v>
@@ -29310,7 +29250,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.662114965708031</v>
+        <v>1.57857731534931</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.76552038223745</v>
@@ -29399,7 +29339,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.672782008774055</v>
+        <v>1.597962683762481</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.909219079052427</v>
@@ -29488,7 +29428,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.701352819441729</v>
+        <v>1.606738045531766</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.183293616172379</v>
@@ -29577,7 +29517,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.711774147588811</v>
+        <v>1.607620422654796</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.546528214767123</v>
@@ -29666,7 +29606,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.713945433629632</v>
+        <v>1.617146931046867</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.362907422162938</v>
@@ -29755,7 +29695,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.705732253789784</v>
+        <v>1.612175934835292</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.665480279591668</v>
@@ -29844,7 +29784,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.711030068539692</v>
+        <v>1.623746427272671</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.502293325302959</v>
@@ -29933,7 +29873,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.71217945798907</v>
+        <v>1.623278569803126</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.412449299835287</v>
@@ -30022,7 +29962,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.703876673416789</v>
+        <v>1.615701496785062</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.967241630937712</v>
@@ -30111,7 +30051,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.704134269964984</v>
+        <v>1.620258972718225</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.880136972542979</v>
@@ -30397,7 +30337,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.42114599234213</v>
+        <v>1.442797373614408</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.347170249859719</v>
@@ -30486,7 +30426,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.409659489427406</v>
+        <v>1.42647204448839</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.984548493672053</v>
@@ -30575,7 +30515,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.407183589221506</v>
+        <v>1.422768952868588</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.427874153922662</v>
@@ -30664,7 +30604,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.381591509209501</v>
+        <v>1.390120164330488</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.107535255020631</v>
@@ -30753,7 +30693,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.421504056262242</v>
+        <v>1.429978515484245</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.480011075656883</v>
@@ -30842,7 +30782,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.401967185409648</v>
+        <v>1.413670141914241</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.578737581772173</v>
@@ -30931,7 +30871,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.372950237945066</v>
+        <v>1.385297303242743</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.351778540225371</v>
@@ -31020,7 +30960,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.372419504595024</v>
+        <v>1.388149034271271</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.293335535308728</v>
@@ -31109,7 +31049,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.383091053706231</v>
+        <v>1.403464120796192</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.337582507535065</v>
@@ -31198,7 +31138,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.407695660645396</v>
+        <v>1.428512723748679</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.444646056638009</v>
@@ -31287,7 +31227,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.396410976988313</v>
+        <v>1.415198032102697</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.176865209731737</v>
@@ -31376,7 +31316,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402073955389575</v>
+        <v>1.418368407707201</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.431603098321661</v>
@@ -31465,7 +31405,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.39769825752284</v>
+        <v>1.417614000890592</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.324573974745295</v>
@@ -31554,7 +31494,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.418107334748643</v>
+        <v>1.436194021228371</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.192466817381293</v>
@@ -31643,7 +31583,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.421706756446187</v>
+        <v>1.443486970253078</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.146879145834848</v>
@@ -31732,7 +31672,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.44831113192941</v>
+        <v>1.469918772186493</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.061359693053031</v>
@@ -31821,7 +31761,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429487130751188</v>
+        <v>1.44316029747885</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.165237262077558</v>
@@ -31910,7 +31850,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.447971259431009</v>
+        <v>1.461305035129175</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.093264990328479</v>
@@ -31999,7 +31939,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.426227496487412</v>
+        <v>1.437709381332007</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.201059675796024</v>
@@ -32088,7 +32028,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.420840685788898</v>
+        <v>1.433245745318787</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.138259392109422</v>
@@ -32177,7 +32117,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.432201237754656</v>
+        <v>1.439678191762262</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.068108827347644</v>
@@ -32266,7 +32206,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.431445994107145</v>
+        <v>1.439471091498461</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.116839802799353</v>
@@ -32355,7 +32295,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.412826118879</v>
+        <v>1.419836039342347</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.20553803085083</v>
@@ -32444,7 +32384,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415191049231858</v>
+        <v>1.416481414712994</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.155856642547551</v>
@@ -32533,7 +32473,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.404335277652101</v>
+        <v>1.408852542040819</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.089695257245716</v>
@@ -32622,7 +32562,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.409958500167944</v>
+        <v>1.412287723468652</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.109819997646835</v>
@@ -32711,7 +32651,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.395671153453368</v>
+        <v>1.395248141392083</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.174396005814098</v>
@@ -32800,7 +32740,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.410666548772171</v>
+        <v>1.410611988449496</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.197579850884912</v>
@@ -32889,7 +32829,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.389819907104006</v>
+        <v>1.383041489055438</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.192211518018082</v>
@@ -32978,7 +32918,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.396428094005677</v>
+        <v>1.377007393747723</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.780208830504231</v>
@@ -33067,7 +33007,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.297232530726512</v>
+        <v>1.286518917448165</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.789257727982517</v>
@@ -33156,7 +33096,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.307124232823281</v>
+        <v>1.299087891660383</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.839168945045174</v>
@@ -33245,7 +33185,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.299469823851402</v>
+        <v>1.293100942928605</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.807366375500948</v>
@@ -33334,7 +33274,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.300761830974813</v>
+        <v>1.296910131276576</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.784778463114344</v>
@@ -33423,7 +33363,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.300724422655772</v>
+        <v>1.293711140130639</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.813364870318982</v>
@@ -33512,7 +33452,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.315399473889697</v>
+        <v>1.311036417783681</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.823603043188768</v>
@@ -33601,7 +33541,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.330448990975554</v>
+        <v>1.319331768053807</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.79427436393795</v>
@@ -33690,7 +33630,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.326325798734447</v>
+        <v>1.318236886702825</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.819883343740353</v>
@@ -33779,7 +33719,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.343994306477383</v>
+        <v>1.335683428045513</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.832445712270659</v>
@@ -33868,7 +33808,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.348373996988004</v>
+        <v>1.339579832399325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.807595816790653</v>
@@ -33957,7 +33897,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.359322815065135</v>
+        <v>1.349911556374287</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.784470044973142</v>
@@ -34046,7 +33986,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.356112173329935</v>
+        <v>1.349264184115672</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.798819331220004</v>
@@ -34135,7 +34075,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.343394257693801</v>
+        <v>1.336583086092471</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.84943779022963</v>
@@ -34224,7 +34164,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.350452710032037</v>
+        <v>1.348882083569289</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.788407035125763</v>
@@ -34313,7 +34253,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.392586030659773</v>
+        <v>1.396319286247507</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.93967090220758</v>
@@ -34402,7 +34342,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.449807780910688</v>
+        <v>1.453776444463914</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.215598917739779</v>
@@ -34491,7 +34431,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.428680072926057</v>
+        <v>1.431620880968612</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.335797309954973</v>
@@ -34580,7 +34520,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.449584385495101</v>
+        <v>1.453227467746375</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.368014015777672</v>
@@ -34669,7 +34609,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.454262946139788</v>
+        <v>1.451646376729625</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.256326183326453</v>
@@ -34758,7 +34698,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.45402894291499</v>
+        <v>1.454278076115847</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.324695445951619</v>
@@ -34847,7 +34787,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.453271053728001</v>
+        <v>1.449532150650055</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.255479913598391</v>
@@ -34936,7 +34876,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.471698814331292</v>
+        <v>1.474073782693329</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.405189927626145</v>
@@ -35025,7 +34965,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.466938300423752</v>
+        <v>1.463465464351885</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.342759709213869</v>
